--- a/aplicaciones/www/estaticos/datos/descarga/ya7-2-pobreza-monetaria.xlsx
+++ b/aplicaciones/www/estaticos/datos/descarga/ya7-2-pobreza-monetaria.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28704"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4131D3B7D370D26DBBD92011595ED87656CD4CC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FB120B-37F0-4902-9642-7607D1DD11F0}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_4131D3B7D370D26DBBD92011595ED87656CD4CC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EA983FD-C456-44C5-94D7-BFEDF214E7D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="datos" sheetId="1" r:id="rId1"/>
+    <sheet name="metadatos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>anno</t>
   </si>
@@ -41,12 +42,42 @@
   <si>
     <t>pobreza_monetaria</t>
   </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Fecha_de_extracción</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>codmpio</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Departamento Nacional de Planeación (DNP)-TERRIDATA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,8 +86,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -68,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -76,30 +113,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,20 +425,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3592,4 +3613,75 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7155B883-CC35-4C45-BEE9-44FD2139DF5C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>